--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C364ED-4272-354F-A733-60D9A9A8CDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC73F304-32B2-5E42-8F52-A73CB168D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -98,12 +98,32 @@
   <si>
     <t>9, 13</t>
   </si>
+  <si>
+    <t>RAPID Team Modified 
+"U.S. Household Food Security Survey Module: Six-Item Short Form Economic Research Service, USDA
+September 2012"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.ers.usda.gov/media/8282/short2012.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.ers.usda.gov/media/8282/short2012.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -123,6 +143,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1368,7 +1395,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H5" sqref="H5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1405,8 +1432,12 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1418,8 +1449,12 @@
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1431,8 +1466,12 @@
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1444,8 +1483,12 @@
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1457,8 +1500,12 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1470,8 +1517,12 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1483,8 +1534,12 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1496,8 +1551,12 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1509,8 +1568,12 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1522,8 +1585,12 @@
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1535,8 +1602,12 @@
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1548,14 +1619,21 @@
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{FAAC0343-A6C9-714E-8686-E0A3FDA9994B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,11 +16,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -45,58 +56,6 @@
 • Never true
 • Don't know
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic                                                           “We couldn’t afford to eat balanced meals.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prior to the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
-  </si>
-  <si>
-    <t>• Yes
-• No
-• Don't know</t>
-  </si>
-  <si>
-    <t>How often did this happen—almost every month, some months but not every month, or in only 1 or 2 months?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Almost every month
-• Sometimes months but not every month
-• Only 1 or 2 months
-• Don't know
-</t>
-  </si>
-  <si>
-    <t>Prior to the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
-  </si>
-  <si>
-    <t>Prior to the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
-  </si>
-  <si>
-    <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Almost every month 
-• Some months but not every month
-• Only 1 or 2 months
-• Don't know
-</t>
-  </si>
-  <si>
-    <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
-  </si>
-  <si>
-    <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
-  </si>
-  <si>
-    <t>9, 13</t>
   </si>
   <si>
     <t>RAPID Team Modified 
@@ -116,14 +75,69 @@
     </r>
   </si>
   <si>
+    <t>9, 13, 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic                                                           “We couldn’t afford to eat balanced meals.” </t>
+  </si>
+  <si>
     <t>https://www.ers.usda.gov/media/8282/short2012.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prior to the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Don't know</t>
+  </si>
+  <si>
+    <t>How often did this happen—almost every month, some months but not every month, or in only 1 or 2 months?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Almost every month
+• Sometimes months but not every month
+• Only 1 or 2 months
+• Don't know
+</t>
+  </si>
+  <si>
+    <t>Prior to the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>Prior to the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
+  </si>
+  <si>
+    <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Almost every month 
+• Some months but not every month
+• Only 1 or 2 months
+• Don't know
+</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>9, 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1394,21 +1408,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:O5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="153" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1433,200 +1447,200 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="153" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="102" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="170.1" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="102" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="7" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="102" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="153" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="153" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="153" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="102" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="170.1" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="102" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -75,7 +75,7 @@
     </r>
   </si>
   <si>
-    <t>9, 13, 36</t>
+    <t>9, 13, 36, 40</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic                                                           “We couldn’t afford to eat balanced meals.” </t>
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic                                                          “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
@@ -75,7 +75,7 @@
     </r>
   </si>
   <si>
-    <t>9, 13, 36, 40</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic                                                           “We couldn’t afford to eat balanced meals.” </t>
@@ -130,7 +130,7 @@
     <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>9, 13</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 01/11/2021-01/22/2021</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -245,6 +245,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1408,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1469,7 +1472,7 @@
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1486,7 +1489,7 @@
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1503,7 +1506,7 @@
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1520,7 +1523,7 @@
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1537,7 +1540,7 @@
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1554,7 +1557,7 @@
       <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1571,7 +1574,7 @@
       <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1588,7 +1591,7 @@
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1605,7 +1608,7 @@
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1622,7 +1625,7 @@
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Question</t>
   </si>
@@ -75,7 +75,7 @@
     </r>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 46, 48</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic                                                           “We couldn’t afford to eat balanced meals.” </t>
@@ -102,6 +102,9 @@
 </t>
   </si>
   <si>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  46, 48</t>
+  </si>
+  <si>
     <t>Prior to the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
   </si>
   <si>
@@ -111,10 +114,25 @@
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                        “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
   </si>
   <si>
+    <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                         "We couldn't afford to eat balanced meals."</t>
+  </si>
+  <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the last month, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
   </si>
   <si>
     <t xml:space="preserve">• Almost every month 
@@ -124,13 +142,29 @@
 </t>
   </si>
   <si>
+    <t>How often did this happen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Almost every week
+• Some weeks
+• Some days 
+• Don't know
+</t>
+  </si>
+  <si>
     <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
   </si>
   <si>
+    <t>In the last month, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
+  </si>
+  <si>
     <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 01/11/2021-01/22/2021</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022</t>
+  </si>
+  <si>
+    <t>In the last month, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
   </si>
 </sst>
 </file>
@@ -182,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -218,11 +252,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,6 +293,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1425,7 +1473,7 @@
     <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1">
+    <row r="2" spans="1:5" ht="126">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="153" customHeight="1">
+    <row r="3" spans="1:5" ht="110.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1476,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="102" customHeight="1">
+    <row r="4" spans="1:5" ht="110.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1493,7 +1541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="170.1" customHeight="1">
+    <row r="5" spans="1:5" ht="110.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1507,12 +1555,12 @@
         <v>11</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="102" customHeight="1">
+    <row r="6" spans="1:5" ht="110.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
@@ -1524,12 +1572,12 @@
         <v>11</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="102" customHeight="1">
+    <row r="7" spans="1:5" ht="110.25">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
@@ -1541,12 +1589,12 @@
         <v>11</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1">
+    <row r="8" spans="1:5" ht="110.25">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1558,12 +1606,12 @@
         <v>11</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1">
+    <row r="9" spans="1:5" ht="110.25">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
@@ -1575,12 +1623,12 @@
         <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="153" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
+    <row r="10" spans="1:5" ht="110.25">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -1588,36 +1636,36 @@
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>21</v>
+    <row r="11" spans="1:5" ht="110.25">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="170.1" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
+    <row r="12" spans="1:5" ht="110.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -1626,14 +1674,14 @@
         <v>11</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1">
+    <row r="13" spans="1:5" ht="110.25">
       <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1642,8 +1690,106 @@
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="110.25">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="78.75">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="110.25">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="110.25">
+      <c r="A17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="110.25">
+      <c r="A18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="110.25">
+      <c r="A19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -59,7 +59,7 @@
     </r>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic                                                           “We couldn’t afford to eat balanced meals.” </t>
@@ -86,13 +86,16 @@
 </t>
   </si>
   <si>
-    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022</t>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022</t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>04/19/2021-04/29/2021 05/14/2021-05/28/2021 10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022  01/03/2022-01/24/2022 01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022  09/08/2022-09/15/2022</t>
   </si>
   <si>
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
@@ -104,7 +107,7 @@
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                        “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022</t>
   </si>
   <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
@@ -727,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -753,7 +756,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -765,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -791,7 +794,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>6</v>
@@ -803,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -829,7 +832,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
@@ -841,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -867,7 +870,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>6</v>
@@ -879,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -905,7 +908,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>6</v>
@@ -917,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -943,7 +946,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>13</v>
@@ -955,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -984,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -993,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1019,15 +1022,15 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="8"/>
       <c r="E15" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1053,7 +1056,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -1065,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1091,7 +1094,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -1103,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -1141,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1167,7 +1170,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -1179,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg7nPjH4TQXwN4zthRwrR6myKwX+Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh3XwMClREwCRckimnW3plqKXhz/Q=="/>
     </ext>
   </extLst>
 </workbook>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                        “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
@@ -146,7 +146,7 @@
 • Don't know</t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023</t>
+    <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh3XwMClREwCRckimnW3plqKXhz/Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhjOmrmz+CSlPvMhOajVEeFhjPjWA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>Question</t>
   </si>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                        “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
   </si>
   <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
@@ -147,6 +147,13 @@
   </si>
   <si>
     <t>01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+  </si>
+  <si>
+    <t>• 1-2 days
+• 3 or more days</t>
+  </si>
+  <si>
+    <t>03/09/2023-03/16/2023</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
@@ -1102,20 +1109,16 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1141,7 +1144,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -1153,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -1190,8 +1193,8 @@
       <c r="D19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
+      <c r="E19" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1216,7 +1219,7 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1228,8 +1231,8 @@
       <c r="D20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1254,11 +1257,21 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -28721,6 +28734,34 @@
       <c r="Y1001" s="2"/>
       <c r="Z1001" s="2"/>
     </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="A1002" s="10"/>
+      <c r="B1002" s="10"/>
+      <c r="C1002" s="10"/>
+      <c r="D1002" s="10"/>
+      <c r="E1002" s="10"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhjOmrmz+CSlPvMhOajVEeFhjPjWA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Y7wGA/dq/Bcyz+rExPr2qrGl9KxCDdL6beogC4N65UU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
   <si>
     <t>Question</t>
   </si>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                        “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
@@ -153,7 +153,15 @@
 • 3 or more days</t>
   </si>
   <si>
-    <t>03/09/2023-03/16/2023</t>
+    <t>03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023</t>
+  </si>
+  <si>
+    <t>• 1-2 days
+• 3 or more days 
+• I don't know</t>
+  </si>
+  <si>
+    <t>06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
@@ -1143,20 +1151,16 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1182,7 +1186,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -1194,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1220,7 +1224,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -1231,8 +1235,8 @@
       <c r="D20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1257,7 +1261,7 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1269,8 +1273,8 @@
       <c r="D21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>23</v>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1295,11 +1299,21 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -28762,6 +28776,34 @@
       <c r="Y1002" s="2"/>
       <c r="Z1002" s="2"/>
     </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="A1003" s="10"/>
+      <c r="B1003" s="10"/>
+      <c r="C1003" s="10"/>
+      <c r="D1003" s="10"/>
+      <c r="E1003" s="10"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>Question</t>
   </si>
@@ -107,13 +107,16 @@
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                        “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
   </si>
   <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                         "We couldn't afford to eat balanced meals."</t>
+  </si>
+  <si>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
@@ -153,7 +156,7 @@
 • 3 or more days</t>
   </si>
   <si>
-    <t>03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023</t>
+    <t>03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>• 1-2 days
@@ -910,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -936,7 +939,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>6</v>
@@ -974,7 +977,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>13</v>
@@ -1015,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1050,15 +1053,15 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="8"/>
       <c r="E15" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1084,15 +1087,15 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1118,15 +1121,15 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1152,15 +1155,15 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
       <c r="E18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -1262,7 +1265,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
@@ -1274,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -107,7 +107,7 @@
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                        “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
@@ -116,7 +116,7 @@
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                         "We couldn't afford to eat balanced meals."</t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
@@ -164,7 +164,7 @@
 • I don't know</t>
   </si>
   <si>
-    <t>06/07/2023-06/14/2023</t>
+    <t>06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -107,7 +107,7 @@
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                        “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
@@ -116,7 +116,7 @@
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                         "We couldn't afford to eat balanced meals."</t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
@@ -164,7 +164,7 @@
 • I don't know</t>
   </si>
   <si>
-    <t>06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
+    <t>06/07/2023-06/14/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -107,7 +107,7 @@
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                        “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
@@ -116,7 +116,7 @@
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                         "We couldn't afford to eat balanced meals."</t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
@@ -164,7 +164,7 @@
 • I don't know</t>
   </si>
   <si>
-    <t>06/07/2023-06/14/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023</t>
+    <t>06/07/2023-06/14/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>

--- a/Data/FoodInsecurityCC.xlsx
+++ b/Data/FoodInsecurityCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Y7wGA/dq/Bcyz+rExPr2qrGl9KxCDdL6beogC4N65UU="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjMVuTjK8mneKczKSphZgZSmSSzsg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                        “The food that we bought just didn’t last, and we didn’t have money to get more." </t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 07/05/2023-07/12/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic                                                                    "We couldn't afford to eat balanced meals."</t>
@@ -116,7 +116,7 @@
     <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household in the last month                                                                         "We couldn't afford to eat balanced meals."</t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>01/31/2022-02/11/2022 05/09/2022-05/24/2022 07/08/2022-07/15/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 04/05/2023-04/13/2023 05/03/2023-05/10/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
@@ -164,7 +164,7 @@
 • I don't know</t>
   </si>
   <si>
-    <t>06/07/2023-06/14/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023</t>
+    <t>06/07/2023-06/14/2023 08/02/2023-08/09/2023 09/06/2023-09/13/2023 10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
